--- a/data/output/FV2410_FV2404/UTILMD/55556.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55556.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="316">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="316">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1065,6 +1065,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U161" totalsRowShown="0">
+  <autoFilter ref="A1:U161"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1354,7 +1384,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9208,5 +9241,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55556.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55556.xlsx
@@ -1964,7 +1964,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4282,7 +4282,7 @@
         <v>299</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4448,7 +4448,7 @@
         <v>300</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4726,7 +4726,7 @@
         <v>302</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4888,7 +4888,7 @@
         <v>303</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5054,7 +5054,7 @@
         <v>303</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5220,7 +5220,7 @@
         <v>305</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5770,7 +5770,7 @@
         <v>306</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6294,7 +6294,7 @@
         <v>308</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6706,7 +6706,7 @@
         <v>309</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6906,7 +6906,7 @@
         <v>310</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7106,7 +7106,7 @@
         <v>311</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7872,7 +7872,7 @@
         <v>313</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8022,7 +8022,7 @@
         <v>314</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8720,7 +8720,7 @@
         <v>316</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9132,7 +9132,7 @@
         <v>309</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9332,7 +9332,7 @@
         <v>310</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N159" s="2"/>
